--- a/testData/Hana_T1005.xlsx
+++ b/testData/Hana_T1005.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4F23F8-CF43-4659-B8D6-F51794118FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438439B-0005-408D-9325-923570F5009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>Pennsylvania Turnpike Commission, 700 S Eisenhower Blvd, Middletown, PA 17057</t>
-  </si>
-  <si>
     <t>700 S Eisenhower Blvd</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>700 South Eisenhower Boulevard</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
     <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
@@ -783,19 +783,19 @@
         <v>52</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>6</v>
